--- a/output_data/Away 1.5 - 2.0 Live_2024-10-14.xlsx
+++ b/output_data/Away 1.5 - 2.0 Live_2024-10-14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Desktop\SoccerPro\soccerpro\output_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B2EB9B-D789-4CB6-A6C8-86F93D5A67DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BECA314-BD98-4E5C-B1CE-80D9128E4876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,7 +311,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,22 +339,10 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -362,59 +350,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -448,22 +398,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -805,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,343 +823,343 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>3</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>1</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>3</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>1</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>4</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>2</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="3">
         <v>8</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="3">
         <v>2</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="3">
         <v>3</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="3">
         <v>1</v>
       </c>
-      <c r="T5" s="8" t="b">
+      <c r="T5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="U5" s="6" t="b">
+      <c r="U5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="3" t="s">
         <v>94</v>
       </c>
     </row>
